--- a/results/DT/375Hz_3classes_normalized/res_hyperopt.xlsx
+++ b/results/DT/375Hz_3classes_normalized/res_hyperopt.xlsx
@@ -470,19 +470,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'max_depth': 31, 'max_features': 0.18199459329927414, 'min_samples_leaf': 0.035087886801400986, 'min_samples_split': 0.003525254427079065}</t>
+          <t>{'max_depth': 22, 'max_features': 0.20062482347149999, 'min_samples_leaf': 0.0012781385918288833, 'min_samples_split': 0.0011281367335225778}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.104, 'entropy_10_25': 0.001, 'mad_25_75': 0.06, 'mean_75_125': 0.062, 'kurt_75_125': 0.168, 'coef_var_75_125': 0.044, 'std_class_75_125': 0.037, 'coef_var_100_150': 0.06, 'kurt_125_175': 0.033, 'coef_var_125_175': 0.03, 'max_175_225': 0.108, 'skew_175_225': 0.004, 'skew_225_275': 0.013, 'var_225_275': 0.141, 'entropy_250_300': 0.004, 'coef_var_275_325': 0.132}</t>
+          <t>{'mean_10_25': 0.114, 'max_10_25': 0.01, 'mad_10_50': 0.019, 'coef_var_10_50': 0.013, 'var_50_100': 0.025, 'max_75_125': 0.049, 'percScore_75_125': 0.014, 'coef_var_75_125': 0.139, 'score_at_perc_100_150': 0.019, 'min_100_150': 0.077, 'std_class_100_150': 0.016, 'skew_125_175': 0.005, 'score_at_perc_125_175': 0.008, 'std_class_150_200': 0.005, 'max_175_225': 0.052, 'kurt_175_225': 0.131, 'skew_175_225': 0.018, 'coef_var_175_225': 0.009, 'min_175_225': 0.025, 'max_200_250': 0.01, 'entropy_225_275': 0.024, 'max_250_300': 0.075, 'coef_var_250_300': 0.073, 'min_275_325': 0.06, 'mad_300_350': 0.01}</t>
         </is>
       </c>
     </row>
@@ -496,19 +496,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="D3" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'max_depth': 46, 'max_features': 0.05455781813421036, 'min_samples_leaf': 0.0016415072130156975, 'min_samples_split': 0.07763689942068702}</t>
+          <t>{'max_depth': 23, 'max_features': 0.4670424804760882, 'min_samples_leaf': 0.03599657900464018, 'min_samples_split': 0.1604072582249439}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.023, 'kurt_10_25': 0.038, 'percScore_10_25': 0.03, 'coef_var_10_50': 0.061, 'kurt_25_75': 0.043, 'coef_var_25_75': 0.098, 'max_50_100': 0.038, 'var_50_100': 0.066, 'max_75_125': 0.171, 'min_100_150': 0.072, 'kurt_175_225': 0.111, 'mad_200_250': 0.021, 'std_class_200_250': 0.012, 'std_class_225_275': 0.012, 'kurt_250_300': 0.175, 'mean_275_325': 0.018, 'skew_325_375': 0.011}</t>
+          <t>{'var_325_375': 0.097, 'mean_10_25': 0.048, 'mean_10_50': 0.076, 'min_25_75': 0.001, 'mad_50_100': 0.288, 'max_75_125': 0.068, 'kurt_125_175': 0.001, 'max_175_225': 0.238, 'max_275_325': 0.11, 'std_class_275_325': 0.073}</t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="D4" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'max_depth': 40, 'max_features': 0.455512339269642, 'min_samples_leaf': 0.0011671971159512833, 'min_samples_split': 0.05057504650285403}</t>
+          <t>{'max_depth': 57, 'max_features': 0.4544152941370926, 'min_samples_leaf': 0.0010895689305411805, 'min_samples_split': 0.029410280963262227}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.011, 'score_at_perc_10_25': 0.014, 'max_10_50': 0.032, 'kurt_10_50': 0.02, 'var_10_50': 0.139, 'entropy_25_75': 0.017, 'var_25_75': 0.088, 'kurt_50_100': 0.021, 'mean_75_125': 0.054, 'max_75_125': 0.034, 'kurt_75_125': 0.094, 'std_class_100_150': 0.003, 'skew_125_175': 0.012, 'max_150_200': 0.067, 'skew_150_200': 0.019, 'kurt_175_225': 0.181, 'coef_var_175_225': 0.026, 'kurt_225_275': 0.028, 'var_225_275': 0.044, 'skew_250_300': 0.01, 'var_250_300': 0.07, 'kurt_275_325': 0.018}</t>
+          <t>{'mean_10_25': 0.01, 'score_at_perc_10_25': 0.014, 'max_10_50': 0.031, 'kurt_10_50': 0.02, 'var_10_50': 0.135, 'entropy_25_75': 0.017, 'var_25_75': 0.108, 'kurt_50_100': 0.02, 'percScore_50_100': 0.011, 'mean_75_125': 0.052, 'max_75_125': 0.034, 'kurt_75_125': 0.092, 'skew_125_175': 0.011, 'max_150_200': 0.065, 'skew_150_200': 0.018, 'kurt_175_225': 0.176, 'coef_var_175_225': 0.025, 'var_225_275': 0.042, 'skew_250_300': 0.011, 'min_250_300': 0.022, 'var_250_300': 0.068, 'kurt_275_325': 0.018}</t>
         </is>
       </c>
     </row>
@@ -548,19 +548,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="D5" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'max_depth': 93, 'max_features': 0.5595779741435521, 'min_samples_leaf': 0.001941293295141193, 'min_samples_split': 0.01878774558962612}</t>
+          <t>{'max_depth': 82, 'max_features': 0.557456526988212, 'min_samples_leaf': 0.010981050935133919, 'min_samples_split': 0.02758564589221093}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'percScore_10_25': 0.017, 'var_10_25': 0.053, 'max_10_50': 0.01, 'entropy_10_50': 0.015, 'std_class_10_50': 0.043, 'var_10_50': 0.026, 'skew_50_100': 0.01, 'coef_var_50_100': 0.039, 'var_50_100': 0.108, 'min_100_150': 0.003, 'max_150_200': 0.054, 'kurt_150_200': 0.017, 'kurt_175_225': 0.21, 'var_200_250': 0.01, 'max_225_275': 0.011, 'skew_225_275': 0.012, 'coef_var_225_275': 0.011, 'max_250_300': 0.13, 'kurt_250_300': 0.038, 'min_250_300': 0.012, 'var_250_300': 0.084, 'mean_300_350': 0.026, 'var_300_350': 0.061}</t>
+          <t>{'percScore_10_25': 0.029, 'coef_var_10_25': 0.034, 'var_10_25': 0.055, 'min_10_50': 0.053, 'skew_25_75': 0.029, 'percScore_25_75': 0.032, 'var_25_75': 0.004, 'std_class_50_100': 0.014, 'var_50_100': 0.11, 'kurt_75_125': 0.003, 'coef_var_75_125': 0.049, 'score_at_perc_100_150': 0.024, 'kurt_150_200': 0.05, 'kurt_175_225': 0.222, 'var_225_275': 0.104, 'kurt_250_300': 0.103, 'mad_250_300': 0.003, 'entropy_300_350': 0.004, 'std_class_300_350': 0.014, 'var_300_350': 0.064}</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'max_depth': 53, 'max_features': 0.8459679665828368, 'min_samples_leaf': 0.0010397215263064441, 'min_samples_split': 0.00994751799103913}</t>
+          <t>{'max_depth': 36, 'max_features': 0.6908501729900979, 'min_samples_leaf': 0.001145212107262404, 'min_samples_split': 0.0013283962603803335}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.18, 'min_10_25': 0.021, 'mean_10_50': 0.022, 'score_at_perc_10_50': 0.027, 'var_10_50': 0.025, 'mean_25_75': 0.03, 'max_50_100': 0.007, 'var_50_100': 0.095, 'max_75_125': 0.254, 'min_75_125': 0.029, 'var_125_175': 0.018, 'max_150_200': 0.008, 'kurt_150_200': 0.048, 'mad_150_200': 0.018, 'var_150_200': 0.02, 'mad_175_225': 0.012, 'coef_var_175_225': 0.008, 'entropy_225_275': 0.015, 'max_250_300': 0.051, 'max_275_325': 0.092, 'max_325_375': 0.01, 'coef_var_325_375': 0.01}</t>
+          <t>{'mean_10_25': 0.184, 'coef_var_10_25': 0.026, 'score_at_perc_10_50': 0.027, 'mean_25_75': 0.03, 'skew_25_75': 0.005, 'min_25_75': 0.025, 'var_25_75': 0.03, 'max_50_100': 0.045, 'kurt_50_100': 0.242, 'var_50_100': 0.085, 'score_at_perc_125_175': 0.012, 'kurt_150_200': 0.046, 'mad_150_200': 0.018, 'coef_var_150_200': 0.02, 'mean_175_225': 0.023, 'coef_var_175_225': 0.005, 'min_175_225': 0.01, 'mad_200_250': 0.029, 'kurt_225_275': 0.005, 'skew_250_300': 0.013, 'max_275_325': 0.092, 'skew_275_325': 0.01, 'mad_275_325': 0.007, 'coef_var_325_375': 0.01}</t>
         </is>
       </c>
     </row>
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="D7" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'max_depth': 67, 'max_features': 0.43117713656258216, 'min_samples_leaf': 0.012181467640668589, 'min_samples_split': 0.06429188721149387}</t>
+          <t>{'max_depth': 17, 'max_features': 0.5052230774617021, 'min_samples_leaf': 0.0012705036954641469, 'min_samples_split': 0.05590398337854909}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.056, 'var_10_25': 0.028, 'min_10_50': 0.131, 'mean_25_75': 0.023, 'max_75_125': 0.207, 'coef_var_75_125': 0.115, 'kurt_150_200': 0.095, 'kurt_175_225': 0.01, 'min_175_225': 0.113, 'var_225_275': 0.036, 'skew_250_300': 0.028, 'coef_var_275_325': 0.14, 'var_275_325': 0.008, 'std_class_300_350': 0.01}</t>
+          <t>{'var_325_375': 0.05, 'mean_10_25': 0.136, 'std_class_10_25': 0.016, 'mean_10_50': 0.05, 'coef_var_50_100': 0.03, 'max_75_125': 0.199, 'coef_var_75_125': 0.11, 'kurt_125_175': 0.036, 'max_175_225': 0.09, 'std_class_175_225': 0.046, 'std_class_250_300': 0.03, 'mad_275_325': 0.01, 'entropy_275_325': 0.011, 'coef_var_275_325': 0.187}</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'max_depth': 73, 'max_features': 0.16826344337326515, 'min_samples_leaf': 0.010261125026960503, 'min_samples_split': 0.01003524230002385}</t>
+          <t>{'max_depth': 44, 'max_features': 0.17005562931261275, 'min_samples_leaf': 0.008923469114356621, 'min_samples_split': 0.0012989884547878403}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -655,16 +655,16 @@
         <v>0.99</v>
       </c>
       <c r="D9" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'max_depth': 91, 'max_features': 0.5855786550371473, 'min_samples_leaf': 0.0011890445188085723, 'min_samples_split': 0.011225646047692175}</t>
+          <t>{'max_depth': 84, 'max_features': 0.40294146603180586, 'min_samples_leaf': 0.0013466205061912762, 'min_samples_split': 0.009867299020536777}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'var_325_375': 0.051, 'mean_10_25': 0.106, 'coef_var_10_25': 0.066, 'coef_kstatvar_10_25': 0.011, 'max_10_50': 0.003, 'min_10_50': 0.041, 'entropy_25_75': 0.019, 'std_class_50_100': 0.054, 'var_50_100': 0.076, 'coef_var_75_125': 0.047, 'kurt_175_225': 0.229, 'max_200_250': 0.004, 'kurt_200_250': 0.012, 'entropy_200_250': 0.007, 'coef_var_200_250': 0.008, 'mad_225_275': 0.016, 'var_225_275': 0.026, 'var_250_300': 0.058, 'max_275_325': 0.081, 'coef_var_275_325': 0.042, 'max_300_350': 0.008, 'skew_300_350': 0.017, 'coef_kstatvar_300_350': 0.008, 'mad_325_375': 0.011}</t>
+          <t>{'var_325_375': 0.018, 'min_10_25': 0.013, 'var_10_25': 0.076, 'coef_kstatvar_10_50': 0.006, 'min_10_50': 0.075, 'var_25_75': 0.048, 'kurt_50_100': 0.041, 'skew_75_125': 0.009, 'coef_var_75_125': 0.16, 'min_75_125': 0.014, 'coef_var_125_175': 0.016, 'var_125_175': 0.008, 'max_150_200': 0.085, 'kurt_150_200': 0.004, 'kurt_175_225': 0.173, 'min_175_225': 0.017, 'kurt_225_275': 0.01, 'entropy_225_275': 0.014, 'var_225_275': 0.077, 'max_250_300': 0.057, 'min_250_300': 0.03, 'min_275_325': 0.007, 'std_class_275_325': 0.022, 'mad_300_350': 0.008, 'skew_325_375': 0.007, 'coef_var_325_375': 0.007}</t>
         </is>
       </c>
     </row>
@@ -678,19 +678,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="D10" t="n">
         <v>0.93</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'max_depth': 9, 'max_features': 0.05990358073861299, 'min_samples_leaf': 0.001482065078530003, 'min_samples_split': 0.011124404647287298}</t>
+          <t>{'max_depth': 9, 'max_features': 0.14646209776804242, 'min_samples_leaf': 0.017635374015667005, 'min_samples_split': 0.0013327852194725486}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'coef_kstatvar_10_25': 0.012, 'std_class_10_25': 0.032, 'skew_10_50': 0.011, 'score_at_perc_10_50': 0.009, 'coef_var_10_50': 0.075, 'min_10_50': 0.027, 'mean_25_75': 0.017, 'percScore_25_75': 0.015, 'std_class_25_75': 0.018, 'var_25_75': 0.053, 'skew_50_100': 0.023, 'var_50_100': 0.012, 'mean_75_125': 0.018, 'max_75_125': 0.211, 'coef_var_75_125': 0.018, 'min_75_125': 0.04, 'var_100_150': 0.014, 'kurt_125_175': 0.016, 'coef_var_150_200': 0.015, 'var_150_200': 0.068, 'mad_200_250': 0.021, 'entropy_225_275': 0.01, 'kurt_250_300': 0.077, 'std_class_250_300': 0.068, 'var_250_300': 0.049, 'max_275_325': 0.056, 'coef_var_275_325': 0.008, 'kurt_300_350': 0.009}</t>
+          <t>{'var_325_375': 0.027, 'std_class_10_25': 0.003, 'mean_10_50': 0.07, 'kurt_10_50': 0.002, 'min_10_50': 0.123, 'skew_25_75': 0.017, 'min_25_75': 0.005, 'var_25_75': 0.065, 'kurt_50_100': 0.242, 'coef_var_50_100': 0.026, 'min_50_100': 0.034, 'max_75_125': 0.066, 'kurt_75_125': 0.001, 'coef_var_75_125': 0.122, 'std_class_100_150': 0.001, 'coef_var_175_225': 0.047, 'var_200_250': 0.018, 'var_225_275': 0.045, 'max_275_325': 0.001, 'kurt_275_325': 0.012, 'std_class_275_325': 0.063, 'score_at_perc_300_350': 0.011}</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'max_depth': 89, 'max_features': 0.3677922984242404, 'min_samples_leaf': 0.009369027479476953, 'min_samples_split': 0.018384588743888902}</t>
+          <t>{'max_depth': 52, 'max_features': 0.3714664766385794, 'min_samples_leaf': 0.009479774101107445, 'min_samples_split': 0.01822396676297561}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'max_depth': 60, 'max_features': 0.438984023725593, 'min_samples_leaf': 0.001293304411707441, 'min_samples_split': 0.06252989388894811}</t>
+          <t>{'max_depth': 30, 'max_features': 0.43971474361259766, 'min_samples_leaf': 0.002211378849670133, 'min_samples_split': 0.08972471231193446}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -756,19 +756,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D13" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'max_depth': 88, 'max_features': 0.30953964588033855, 'min_samples_leaf': 0.0020596234873340516, 'min_samples_split': 0.001193765438385272}</t>
+          <t>{'max_depth': 66, 'max_features': 0.3122215894983942, 'min_samples_leaf': 0.0011945521233722445, 'min_samples_split': 0.02536868024910526}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'var_325_375': 0.039, 'mean_10_25': 0.101, 'kurt_10_25': 0.002, 'percScore_10_25': 0.008, 'entropy_10_25': 0.009, 'std_class_10_25': 0.03, 'var_10_25': 0.004, 'mean_10_50': 0.007, 'skew_10_50': 0.004, 'percScore_10_50': 0.006, 'min_10_50': 0.038, 'score_at_perc_25_75': 0.004, 'min_25_75': 0.053, 'var_25_75': 0.015, 'mad_50_100': 0.136, 'var_50_100': 0.022, 'mean_75_125': 0.021, 'max_75_125': 0.01, 'kurt_75_125': 0.012, 'percScore_75_125': 0.033, 'skew_125_175': 0.007, 'kurt_150_200': 0.008, 'mad_150_200': 0.018, 'score_at_perc_150_200': 0.007, 'max_175_225': 0.007, 'kurt_175_225': 0.15, 'skew_175_225': 0.008, 'score_at_perc_200_250': 0.005, 'min_200_250': 0.016, 'var_225_275': 0.051, 'max_250_300': 0.061, 'kurt_250_300': 0.01, 'coef_var_275_325': 0.006, 'min_275_325': 0.015, 'std_class_275_325': 0.026, 'std_class_300_350': 0.004, 'coef_var_325_375': 0.04, 'std_class_325_375': 0.01}</t>
+          <t>{'percScore_10_25': 0.008, 'score_at_perc_10_25': 0.034, 'coef_kstatvar_10_25': 0.008, 'min_10_25': 0.058, 'kurt_10_50': 0.008, 'percScore_10_50': 0.008, 'min_10_50': 0.056, 'min_25_75': 0.105, 'mad_50_100': 0.15, 'max_75_125': 0.051, 'coef_var_75_125': 0.019, 'entropy_150_200': 0.008, 'score_at_perc_150_200': 0.023, 'var_150_200': 0.008, 'kurt_175_225': 0.197, 'mad_175_225': 0.014, 'coef_var_200_250': 0.009, 'std_class_200_250': 0.019, 'max_225_275': 0.014, 'max_250_300': 0.059, 'kurt_250_300': 0.044, 'skew_250_300': 0.004, 'var_250_300': 0.039, 'mad_275_325': 0.008, 'min_275_325': 0.037, 'std_class_300_350': 0.011}</t>
         </is>
       </c>
     </row>
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'max_depth': 97, 'max_features': 0.07301362483151294, 'min_samples_leaf': 0.0014623334370700847, 'min_samples_split': 0.017680499442472596}</t>
+          <t>{'max_depth': 11, 'max_features': 0.813552310963881, 'min_samples_leaf': 0.010577555928866835, 'min_samples_split': 0.04015759297484155}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'kurt_10_25': 0.008, 'coef_var_10_25': 0.027, 'std_class_10_25': 0.008, 'std_class_10_50': 0.015, 'coef_kstatvar_25_75': 0.009, 'std_class_25_75': 0.007, 'var_25_75': 0.098, 'coef_var_50_100': 0.076, 'var_50_100': 0.016, 'mean_75_125': 0.069, 'max_75_125': 0.124, 'percScore_75_125': 0.034, 'coef_var_75_125': 0.022, 'coef_kstatvar_75_125': 0.008, 'min_75_125': 0.047, 'coef_var_100_150': 0.006, 'min_100_150': 0.007, 'score_at_perc_150_200': 0.033, 'mad_175_225': 0.008, 'entropy_175_225': 0.014, 'min_175_225': 0.039, 'std_class_175_225': 0.044, 'var_200_250': 0.013, 'skew_225_275': 0.007, 'coef_kstatvar_225_275': 0.014, 'var_225_275': 0.045, 'kurt_250_300': 0.078, 'std_class_250_300': 0.01, 'var_250_300': 0.065, 'max_275_325': 0.011, 'skew_275_325': 0.008, 'coef_var_275_325': 0.022, 'skew_300_350': 0.008}</t>
+          <t>{'mean_10_25': 0.045, 'coef_var_10_25': 0.024, 'var_10_25': 0.042, 'percScore_10_50': 0.014, 'min_10_50': 0.022, 'max_25_75': 0.084, 'min_25_75': 0.014, 'std_class_25_75': 0.043, 'max_50_100': 0.077, 'skew_50_100': 0.02, 'var_50_100': 0.047, 'max_75_125': 0.267, 'std_class_100_150': 0.007, 'max_125_175': 0.01, 'kurt_150_200': 0.042, 'max_175_225': 0.086, 'score_at_perc_175_225': 0.002, 'min_200_250': 0.006, 'mean_250_300': 0.027, 'max_250_300': 0.032, 'skew_250_300': 0.025, 'var_250_300': 0.041, 'coef_kstatvar_275_325': 0.001, 'min_275_325': 0.02, 'var_275_325': 0.002}</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'max_depth': 38, 'max_features': 0.5401263475282971, 'min_samples_leaf': 0.0013124030329000197, 'min_samples_split': 0.1060174557505538}</t>
+          <t>{'max_depth': 70, 'max_features': 0.5365171291290486, 'min_samples_leaf': 0.0016041146689084068, 'min_samples_split': 0.11305308826529613}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'max_depth': 40, 'max_features': 0.15264170153166534, 'min_samples_leaf': 0.0011973751993747932, 'min_samples_split': 0.010570628866437864}</t>
+          <t>{'max_depth': 38, 'max_features': 0.15374015554866874, 'min_samples_leaf': 0.0017544256076178423, 'min_samples_split': 0.00945233531945941}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
